--- a/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
+++ b/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="108">
   <si>
     <t>EMPLOYEE</t>
   </si>
@@ -260,6 +260,105 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>the unique id for 'employee' table</t>
+  </si>
+  <si>
+    <t>first name of employee</t>
+  </si>
+  <si>
+    <t>last name of employee</t>
+  </si>
+  <si>
+    <t>middle name of employee</t>
+  </si>
+  <si>
+    <t>age of employee</t>
+  </si>
+  <si>
+    <t>gender of employee</t>
+  </si>
+  <si>
+    <t>cell number of employee</t>
+  </si>
+  <si>
+    <t>email add of employee</t>
+  </si>
+  <si>
+    <t>home add of employee</t>
+  </si>
+  <si>
+    <t>unique id for 'student' table</t>
+  </si>
+  <si>
+    <t>first name of student</t>
+  </si>
+  <si>
+    <t>last name of student</t>
+  </si>
+  <si>
+    <t>middle name of student</t>
+  </si>
+  <si>
+    <t>cell number of student</t>
+  </si>
+  <si>
+    <t>email add of student</t>
+  </si>
+  <si>
+    <t>home add of student</t>
+  </si>
+  <si>
+    <t>age of student</t>
+  </si>
+  <si>
+    <t>gender of student</t>
+  </si>
+  <si>
+    <t>unique id for 'course' table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the name of the course </t>
+  </si>
+  <si>
+    <t>unique id from 'employee' table</t>
+  </si>
+  <si>
+    <t>unique id for 'task' table</t>
+  </si>
+  <si>
+    <t>title of the task</t>
+  </si>
+  <si>
+    <t>unique id from 'course' table</t>
+  </si>
+  <si>
+    <t>the question in task</t>
+  </si>
+  <si>
+    <t>unique id from 'task' table</t>
+  </si>
+  <si>
+    <t>unique id of 'question' table</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status of student</t>
+  </si>
+  <si>
+    <t>Present/Absent</t>
+  </si>
+  <si>
+    <t>the time of the class schedule</t>
+  </si>
+  <si>
+    <t>the day of the class schedule</t>
+  </si>
+  <si>
+    <t>unique id of 'schedule' table</t>
   </si>
 </sst>
 </file>
@@ -358,14 +457,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -665,28 +764,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -711,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,7 +827,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -743,6 +845,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
@@ -760,6 +865,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
@@ -774,6 +882,9 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
@@ -791,6 +902,9 @@
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G7" s="1">
         <v>18</v>
       </c>
@@ -808,6 +922,9 @@
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
@@ -822,6 +939,9 @@
       <c r="C9" s="1">
         <v>13</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G9" s="1">
         <v>9261523128</v>
       </c>
@@ -836,7 +956,10 @@
       <c r="C10" s="1">
         <v>150</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -852,6 +975,9 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
@@ -885,15 +1011,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1028,15 +1154,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1125,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1138,15 +1264,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1253,26 +1379,27 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1313,6 +1440,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1327,6 +1457,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1344,6 +1477,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1358,6 +1494,9 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1375,6 +1514,9 @@
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="1">
         <v>18</v>
       </c>
@@ -1392,6 +1534,9 @@
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1406,6 +1551,9 @@
       <c r="C9" s="1">
         <v>13</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G9" s="1">
         <v>9194870158</v>
       </c>
@@ -1420,7 +1568,10 @@
       <c r="C10" s="1">
         <v>150</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1436,6 +1587,9 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -1458,26 +1612,27 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1518,6 +1673,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1532,6 +1690,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1551,6 +1712,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1567,26 +1731,28 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1627,6 +1793,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1641,6 +1810,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1661,6 +1833,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1677,6 +1852,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1693,26 +1871,28 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1753,6 +1933,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1767,6 +1950,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1787,6 +1973,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1804,6 +1993,9 @@
       <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1820,6 +2012,9 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1847,15 +2042,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1945,7 +2140,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1956,15 +2151,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2054,26 +2249,27 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2114,6 +2310,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2128,6 +2327,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
@@ -2144,6 +2346,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
@@ -2160,29 +2365,31 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2207,26 +2414,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -2243,7 +2454,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -2260,7 +2471,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2272,6 +2483,23 @@
         <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
+++ b/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="154">
   <si>
     <t>EMPLOYEE</t>
   </si>
@@ -359,6 +359,144 @@
   </si>
   <si>
     <t>unique id of 'schedule' table</t>
+  </si>
+  <si>
+    <t>employee_type</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>F', 'M'</t>
+  </si>
+  <si>
+    <t>No null</t>
+  </si>
+  <si>
+    <t>admin, 'professor'</t>
+  </si>
+  <si>
+    <t>different employee type</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>course_description</t>
+  </si>
+  <si>
+    <t>time_created</t>
+  </si>
+  <si>
+    <t>date_created</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>min_grade</t>
+  </si>
+  <si>
+    <t>max_grade</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>time_open</t>
+  </si>
+  <si>
+    <t>time_close</t>
+  </si>
+  <si>
+    <t>task_type</t>
+  </si>
+  <si>
+    <t>time_remaining</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>attempts</t>
+  </si>
+  <si>
+    <t>date of the created task</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>time when the task is open</t>
+  </si>
+  <si>
+    <t>time when the task is close</t>
+  </si>
+  <si>
+    <t>time when the task is created</t>
+  </si>
+  <si>
+    <t>if assignment or exercise</t>
+  </si>
+  <si>
+    <t>duration of the task</t>
+  </si>
+  <si>
+    <t>description of the task</t>
+  </si>
+  <si>
+    <t>number of attempts</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercise </t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>10:00am</t>
+  </si>
+  <si>
+    <t>To enhance etc</t>
+  </si>
+  <si>
+    <t>Minimum grade</t>
+  </si>
+  <si>
+    <t>Maximum grade</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>the time course is created</t>
+  </si>
+  <si>
+    <t>the date course is created</t>
+  </si>
+  <si>
+    <t>To enhance english grammar</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>announcements</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -446,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +603,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -762,15 +903,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -830,7 +974,9 @@
       <c r="F3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -914,10 +1060,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>37</v>
@@ -981,6 +1127,26 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -997,16 +1163,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1046,13 +1214,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -1060,10 +1228,13 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -1071,16 +1242,16 @@
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
+      <c r="F4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -1088,16 +1259,16 @@
       <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -1111,10 +1282,13 @@
       <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -1127,6 +1301,29 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1340,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,6 +1400,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1220,6 +1420,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1236,6 +1439,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1251,14 +1457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" activeCellId="1" sqref="D14 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1310,6 +1517,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1330,6 +1540,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1347,6 +1560,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1363,6 +1579,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1598,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1442,6 +1661,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1609,15 +1831,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1676,6 +1899,9 @@
       <c r="F3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1699,22 +1925,73 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>255</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1728,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1739,7 +2016,7 @@
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1796,6 +2073,9 @@
       <c r="F3" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1805,7 +2085,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -1819,42 +2099,181 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,6 +2355,9 @@
       <c r="F3" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1959,27 +2381,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -1994,12 +2401,15 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -2014,7 +2424,33 @@
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2467,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2091,6 +2527,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2124,6 +2563,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2582,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2200,6 +2642,9 @@
       <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2217,6 +2662,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2233,6 +2681,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2700,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2313,16 +2764,19 @@
       <c r="F3" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -2368,7 +2822,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2451,6 +2905,9 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2468,6 +2925,9 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2485,6 +2945,9 @@
       <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2501,6 +2964,9 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
+++ b/Documentation/MCSPROJ/Data Dictionary/Data Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CUTE 2\Project---LSC-2\Documentation\MCSPROJ\Data Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="1" r:id="rId1"/>
-    <sheet name="STUDENT" sheetId="2" r:id="rId2"/>
+    <sheet name="USER" sheetId="2" r:id="rId2"/>
     <sheet name="COURSE" sheetId="3" r:id="rId3"/>
     <sheet name="TASK" sheetId="4" r:id="rId4"/>
     <sheet name="QUESTION" sheetId="5" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="199">
   <si>
     <t>EMPLOYEE</t>
   </si>
@@ -64,9 +64,6 @@
     <t>EXAMPLE</t>
   </si>
   <si>
-    <t>STUDENT</t>
-  </si>
-  <si>
     <t>COURSE</t>
   </si>
   <si>
@@ -112,18 +109,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>cell_number</t>
-  </si>
-  <si>
-    <t>email_add</t>
-  </si>
-  <si>
     <t>home_add</t>
   </si>
   <si>
-    <t>Johanna</t>
-  </si>
-  <si>
     <t>Heramia</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>jcheramia@yahoo.com</t>
-  </si>
-  <si>
     <t>Pasay City</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>Gavarra</t>
   </si>
   <si>
-    <t>jggardon@yahoo.com</t>
-  </si>
-  <si>
     <t>Taguig City</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>choice</t>
   </si>
   <si>
-    <t>The answer is 2</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -214,18 +193,12 @@
     <t>task_course_id</t>
   </si>
   <si>
-    <t>task_course_employee_id</t>
-  </si>
-  <si>
     <t>course_id</t>
   </si>
   <si>
     <t>course_employee_id</t>
   </si>
   <si>
-    <t>student_id</t>
-  </si>
-  <si>
     <t>choice_id</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>class_list_coure_employee_id</t>
   </si>
   <si>
-    <t>class_list_student_id</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -283,39 +253,12 @@
     <t>cell number of employee</t>
   </si>
   <si>
-    <t>email add of employee</t>
-  </si>
-  <si>
     <t>home add of employee</t>
   </si>
   <si>
     <t>unique id for 'student' table</t>
   </si>
   <si>
-    <t>first name of student</t>
-  </si>
-  <si>
-    <t>last name of student</t>
-  </si>
-  <si>
-    <t>middle name of student</t>
-  </si>
-  <si>
-    <t>cell number of student</t>
-  </si>
-  <si>
-    <t>email add of student</t>
-  </si>
-  <si>
-    <t>home add of student</t>
-  </si>
-  <si>
-    <t>age of student</t>
-  </si>
-  <si>
-    <t>gender of student</t>
-  </si>
-  <si>
     <t>unique id for 'course' table</t>
   </si>
   <si>
@@ -463,9 +406,6 @@
     <t>10:00am</t>
   </si>
   <si>
-    <t>To enhance etc</t>
-  </si>
-  <si>
     <t>Minimum grade</t>
   </si>
   <si>
@@ -497,13 +437,211 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>the unique username of employee</t>
+  </si>
+  <si>
+    <t>jggardon</t>
+  </si>
+  <si>
+    <t>auth_key</t>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>use to protect password from developers</t>
+  </si>
+  <si>
+    <t>password reset_token</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>use when the user forgot their password</t>
+  </si>
+  <si>
+    <t>token use if the user forgot their password</t>
+  </si>
+  <si>
+    <t>j@yahoo.com</t>
+  </si>
+  <si>
+    <t>Smallint</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>the date when user signed up</t>
+  </si>
+  <si>
+    <t>10/21/16</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>the date when user update their account</t>
+  </si>
+  <si>
+    <t>10/22/16</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>authentication key use to authenticate whether the user exist</t>
+  </si>
+  <si>
+    <t>$2y$13$Az5CoBzBliHyO…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrhzXsadfaf4-...
+vrhzXsYHiIv4-ajAGKsvtGCa...
+vrhzXsYHiIv4-ajAGKsvtGCadTsmlSj2
+</t>
+  </si>
+  <si>
+    <t>the unique username of student</t>
+  </si>
+  <si>
+    <t>vrhzXsadfaf4-…</t>
+  </si>
+  <si>
+    <t>status_student</t>
+  </si>
+  <si>
+    <t>review_class</t>
+  </si>
+  <si>
+    <t>use in profile picture</t>
+  </si>
+  <si>
+    <t>home address of the student</t>
+  </si>
+  <si>
+    <t>contact number of the student</t>
+  </si>
+  <si>
+    <t>age of the student</t>
+  </si>
+  <si>
+    <t>last name of the student</t>
+  </si>
+  <si>
+    <t>gender of the student</t>
+  </si>
+  <si>
+    <t>middle name of the student</t>
+  </si>
+  <si>
+    <t>first name of the student</t>
+  </si>
+  <si>
+    <t>review class where the student enrolled</t>
+  </si>
+  <si>
+    <t>status of the student(e.g. Enrolled, reserved)</t>
+  </si>
+  <si>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Civil Service Exam Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna </t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>me.png</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description of the course</t>
+  </si>
+  <si>
+    <t>To enhance…</t>
+  </si>
+  <si>
+    <t>image for question (if any)</t>
+  </si>
+  <si>
+    <t>is_correct</t>
+  </si>
+  <si>
+    <t>right answer</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>student who choose</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>review class</t>
+  </si>
+  <si>
+    <t>class_list_user_id</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>employee assigned</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>16/20</t>
+  </si>
+  <si>
+    <t>student's choice</t>
+  </si>
+  <si>
+    <t>feedback in task</t>
+  </si>
+  <si>
+    <t>student belong in review class</t>
+  </si>
+  <si>
+    <t>employee who announce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +687,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -584,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,10 +752,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,33 +1063,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -960,193 +1120,324 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" s="1">
-        <v>20</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>255</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9261523128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>255</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9261523128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>255</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1445,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
@@ -1163,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,15 +1470,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1214,115 +1505,152 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="1">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1340,26 +1668,28 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1386,19 +1716,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1406,19 +1739,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1426,19 +1762,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1458,28 +1797,28 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" activeCellId="1" sqref="D14 G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1506,59 +1845,62 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>255</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1566,19 +1908,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1595,30 +1937,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1648,19 +1992,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1668,161 +2012,331 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>255</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>140</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="1">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>143</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9194870158</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>148</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9261523128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
         <v>255</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>255</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
@@ -1834,7 +2348,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1847,15 +2361,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1885,19 +2399,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1905,93 +2419,96 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>255</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2525,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2021,15 +2538,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2059,19 +2576,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2079,152 +2596,152 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2232,22 +2749,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2255,22 +2772,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2287,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2303,15 +2820,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2341,19 +2858,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2361,95 +2878,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>255</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2464,29 +2944,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2516,16 +2997,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2533,38 +3014,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>255</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2582,26 +3083,28 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2628,19 +3131,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2648,19 +3154,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2668,19 +3177,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2697,30 +3209,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2750,19 +3262,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2770,42 +3282,62 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>188</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +3354,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2830,20 +3362,20 @@
     <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2870,40 +3402,41 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2911,19 +3444,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2931,19 +3467,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2951,19 +3490,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
